--- a/19, 20, 21/1/20 - 27417.xlsx
+++ b/19, 20, 21/1/20 - 27417.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{067B6DD4-60D2-426F-AB15-9AE2785A5F12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABEACE02EC8983DE49A25ADE58AB" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{2F1FCDF4-BC72-4701-AF51-CD047113F26F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,6 +168,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -177,12 +183,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -543,14 +543,14 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
@@ -565,345 +565,345 @@
       <c r="B4">
         <v>34</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <f>A4+1</f>
         <v>8</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <f>B4</f>
         <v>34</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <f>C4+1</f>
         <v>9</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <f>D4</f>
         <v>34</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <f>MAX(E4:F4) * 2 + MIN(E4:F4)</f>
         <v>77</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="7">
         <f>SUM(E4:F4)</f>
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9">
         <f>C4</f>
         <v>8</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="9">
         <f>D4+1</f>
         <v>35</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="9">
         <f t="shared" ref="G5:G7" si="0">MAX(E5:F5) * 2 + MIN(E5:F5)</f>
         <v>78</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="10">
         <f t="shared" ref="H5:H7" si="1">SUM(E5:F5)</f>
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
         <f>C4*2</f>
         <v>16</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="9">
         <f>D4</f>
         <v>34</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="10">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
         <f>C4</f>
         <v>8</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="12">
         <f>D4*2</f>
         <v>68</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="12">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="13">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <f>A4</f>
         <v>7</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <f>B4+1</f>
         <v>35</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <f>C8+1</f>
         <v>8</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <f>D8</f>
         <v>35</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="6">
         <f>MAX(E8:F8) * 2 + MIN(E8:F8)</f>
         <v>78</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="7">
         <f>SUM(E8:F8)</f>
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7">
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
         <f>C8</f>
         <v>7</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="9">
         <f>D8+1</f>
         <v>36</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="9">
         <f t="shared" ref="G9:G11" si="2">MAX(E9:F9) * 2 + MIN(E9:F9)</f>
         <v>79</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="10">
         <f t="shared" ref="H9:H11" si="3">SUM(E9:F9)</f>
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7">
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
         <f>C8*2</f>
         <v>14</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="9">
         <f>D8</f>
         <v>35</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="9">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="10">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10">
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
         <f>C8</f>
         <v>7</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="12">
         <f>D8*2</f>
         <v>70</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="12">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="13">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <f>A4*2</f>
         <v>14</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
         <f>B4</f>
         <v>34</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <f>C12+1</f>
         <v>15</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="6">
         <f>D12</f>
         <v>34</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="6">
         <f>MAX(E12:F12) * 2 + MIN(E12:F12)</f>
         <v>83</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="7">
         <f>SUM(E12:F12)</f>
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7">
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
         <f>C12</f>
         <v>14</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="9">
         <f>D12+1</f>
         <v>35</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="9">
         <f t="shared" ref="G13:G15" si="4">MAX(E13:F13) * 2 + MIN(E13:F13)</f>
         <v>84</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="10">
         <f t="shared" ref="H13:H15" si="5">SUM(E13:F13)</f>
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7">
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9">
         <f>C12*2</f>
         <v>28</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="9">
         <f>D12</f>
         <v>34</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="9">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="10">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10">
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12">
         <f>C12</f>
         <v>14</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="12">
         <f>D12*2</f>
         <v>68</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="12">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="13">
         <f t="shared" si="5"/>
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <f>A4</f>
         <v>7</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <f>B4*2</f>
         <v>68</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="6">
         <f>C16+1</f>
         <v>8</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="6">
         <f>D16</f>
         <v>68</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="6">
         <f>MAX(E16:F16) * 2 + MIN(E16:F16)</f>
         <v>144</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="7">
         <f>SUM(E16:F16)</f>
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7">
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9">
         <f>C16</f>
         <v>7</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="9">
         <f>D16+1</f>
         <v>69</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="9">
         <f t="shared" ref="G17:G19" si="6">MAX(E17:F17) * 2 + MIN(E17:F17)</f>
         <v>145</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="10">
         <f t="shared" ref="H17:H19" si="7">SUM(E17:F17)</f>
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7">
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
         <f>C16*2</f>
         <v>14</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="9">
         <f>D16</f>
         <v>68</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="9">
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="10">
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10">
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12">
         <f>C16</f>
         <v>7</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="12">
         <f>D16*2</f>
         <v>136</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="12">
         <f t="shared" si="6"/>
         <v>279</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="13">
         <f t="shared" si="7"/>
         <v>143</v>
       </c>
